--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-11.44525455381149</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.165779918000254</v>
+        <v>-9.194425876617951</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.75653152459927</v>
+        <v>-1.776353271101643</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.902137032322536</v>
+        <v>-7.969025607540916</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.73686663991966</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.808402510683536</v>
+        <v>-9.831012917691197</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.758207339363011</v>
+        <v>-1.773708625927615</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.725181467113767</v>
+        <v>-7.776529478859017</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.853290018262719</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.37105731760956</v>
+        <v>-10.40169330625919</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.76085198453704</v>
+        <v>-1.778356393436427</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.528862386002085</v>
+        <v>-7.579542690302406</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.863513203591971</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.01295983363654</v>
+        <v>-11.04088571559794</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.757343247375457</v>
+        <v>-1.771967349649665</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.096397438534189</v>
+        <v>-7.143019128953576</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.784517968450995</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.64474199956688</v>
+        <v>-11.68115169376972</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.811021689026534</v>
+        <v>-1.825161376095598</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.843676716780351</v>
+        <v>-6.889813991994594</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.657328934635319</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.43808318256411</v>
+        <v>-12.47300035424299</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.603089735294241</v>
+        <v>-1.619834790628808</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.462756165600331</v>
+        <v>-6.507911518101444</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.513723187029508</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.08115091354401</v>
+        <v>-13.11584551607458</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.506861309407554</v>
+        <v>-1.522820826571618</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.816218974367373</v>
+        <v>-5.870957892548629</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.39900035027504</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.69828279259445</v>
+        <v>-13.73604099398999</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.399150933928674</v>
+        <v>-1.418016942323601</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.400878759016455</v>
+        <v>-5.446217403757353</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.346426154004874</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.33870587840032</v>
+        <v>-14.37952767866082</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.319850855616339</v>
+        <v>-1.33692321852195</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.013124025753054</v>
+        <v>-5.06300569958003</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.39004924200032</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18215130437284</v>
+        <v>-15.22318258147881</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.196613008967171</v>
+        <v>-1.209050696666811</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.449317096176962</v>
+        <v>-4.499931938963075</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.556734088522572</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.9556707408677</v>
+        <v>-15.99413592661669</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9609253732104186</v>
+        <v>-0.9754447370618928</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.914758371149287</v>
+        <v>-3.958067708949717</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.8649265772778497</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.72231671837066</v>
+        <v>-16.7616459961072</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8685984535705663</v>
+        <v>-0.8827250483367888</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.438159270801933</v>
+        <v>-3.477815856109522</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3356614538370953</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.44450123542311</v>
+        <v>-17.48034796060375</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.690674057951509</v>
+        <v>-0.7077464208571199</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.871890988291597</v>
+        <v>-2.915422895240336</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.02496693535364138</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.21884548699699</v>
+        <v>-18.25978511798307</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5035850503432435</v>
+        <v>-0.5190208753936386</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.589634031326825</v>
+        <v>-2.631477031208981</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2198481916115101</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.08822676489897</v>
+        <v>-19.12942824194188</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3390540805312721</v>
+        <v>-0.3536519981997966</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.030933099859006</v>
+        <v>-2.07669069829084</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2598023916904142</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.91301565932203</v>
+        <v>-19.95137610664829</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09382215600290109</v>
+        <v>-0.1067180743020013</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.75623040163391</v>
+        <v>-1.800626400570204</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1631806665554898</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.66285111997621</v>
+        <v>-20.70733876503239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02237203171741777</v>
+        <v>0.01395368099018791</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.318122671641231</v>
+        <v>-1.364299223763999</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.05060862712051201</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.39330997242463</v>
+        <v>-21.44363678454823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2918770857143489</v>
+        <v>0.2809973820528745</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9392314274016785</v>
+        <v>-0.9860102254551657</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.3577165219673609</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.02596932264536</v>
+        <v>-22.07175310568288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4415221071952778</v>
+        <v>0.4292415271297388</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7073274671661847</v>
+        <v>-0.7519853121593123</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.7340595143499526</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.64365107841515</v>
+        <v>-22.68977526132656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6291609915228958</v>
+        <v>0.6173779189653424</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3754637747341122</v>
+        <v>-0.4262488174571677</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.155463360183598</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.0991322942788</v>
+        <v>-23.1466049843829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.801547343039903</v>
+        <v>0.7922649003251192</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2569915263193331</v>
+        <v>-0.3056556159820289</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.599197396315592</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.5406963922217</v>
+        <v>-23.58747519027519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8864378346656548</v>
+        <v>0.880166621604468</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1218396840841949</v>
+        <v>-0.1757276025807394</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.04516348138275</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.0229906443052</v>
+        <v>-24.06419212134812</v>
       </c>
       <c r="F24" t="n">
-        <v>1.033490580183922</v>
+        <v>1.027834705356296</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1440311374009206</v>
+        <v>-0.1840281225823937</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.473774129735415</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.26954489142059</v>
+        <v>-24.30926693824239</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087116652623632</v>
+        <v>1.082259408269352</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03861957954399982</v>
+        <v>-0.008211587720854325</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.871883309654051</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.54176005210576</v>
+        <v>-24.58517412832892</v>
       </c>
       <c r="F26" t="n">
-        <v>1.223774109685569</v>
+        <v>1.218563373154562</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06247918299980888</v>
+        <v>-0.109022319602145</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.228290006987864</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.58902326536439</v>
+        <v>-24.63014618859025</v>
       </c>
       <c r="F27" t="n">
-        <v>1.191671783117656</v>
+        <v>1.18593735447298</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2625950319355918</v>
+        <v>-0.3086537533327842</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.534751262514359</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.67483021818906</v>
+        <v>-24.71766823308719</v>
       </c>
       <c r="F28" t="n">
-        <v>1.121130455406436</v>
+        <v>1.115343657550393</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6152362089774834</v>
+        <v>-0.6590692388915823</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.78619598852939</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.49041204036051</v>
+        <v>-24.53547574674173</v>
       </c>
       <c r="F29" t="n">
-        <v>1.130347436607011</v>
+        <v>1.121929085879782</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6581135007841363</v>
+        <v>-0.697416593914998</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.978858596515296</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.22843506049757</v>
+        <v>-24.27292270555375</v>
       </c>
       <c r="F30" t="n">
-        <v>1.01724303235734</v>
+        <v>1.008837773932952</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9762695521409215</v>
+        <v>-1.015035860855273</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.113701678055693</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.00997689528053</v>
+        <v>-24.05642838576297</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9469635507029545</v>
+        <v>0.9374847234455448</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.181753245241812</v>
+        <v>-1.213397341210264</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.193503550515792</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.66214059338155</v>
+        <v>-23.70721739206561</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9253612510141064</v>
+        <v>0.9178200845772722</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.428896645985075</v>
+        <v>-1.461300095518347</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.221277442617848</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.33076131615462</v>
+        <v>-23.37620469931825</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8866473115111224</v>
+        <v>0.8772863149792883</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.704136128626682</v>
+        <v>-1.733999671408659</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.199561955422989</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.88720718817978</v>
+        <v>-22.93820170774831</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8277581333290386</v>
+        <v>0.8218927816559453</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.93432499718991</v>
+        <v>-1.958467203630053</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.131404244077396</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.51973243201822</v>
+        <v>-22.56592207644383</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7434044261197975</v>
+        <v>0.7370022900301935</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.197519561217129</v>
+        <v>-2.209865602796877</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.02036905221278</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.95262624212601</v>
+        <v>-22.00241626983309</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7901832241732848</v>
+        <v>0.7827337038563427</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.484529024113448</v>
+        <v>-2.489032776291002</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.871576509163722</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.50852223743182</v>
+        <v>-21.55980478766286</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8062736643657661</v>
+        <v>0.7977767598214859</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.668397325222649</v>
+        <v>-2.674223399987217</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.690450347586541</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.0209517873031</v>
+        <v>-21.07142261475795</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9027770286121289</v>
+        <v>0.8945157855189998</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.80129729136901</v>
+        <v>-2.808092196543866</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.482462159732219</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.53713882808995</v>
+        <v>-20.59140642336891</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9210015141678116</v>
+        <v>0.9111299178251502</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.850930211441994</v>
+        <v>-2.851558641978396</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.254846967653657</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.88227493224966</v>
+        <v>-19.93900388046286</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9432191520902208</v>
+        <v>0.934604416820365</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.965527138215622</v>
+        <v>-2.962254062505191</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.015664555884429</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.34748054577083</v>
+        <v>-19.4044189708295</v>
       </c>
       <c r="F41" t="n">
-        <v>1.015148263902664</v>
+        <v>1.006337144090182</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.11819648165299</v>
+        <v>-3.112789360579357</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.771860578249083</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.58493245905734</v>
+        <v>-18.64002486941532</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9935721488194993</v>
+        <v>0.9860571669883484</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.332150894692477</v>
+        <v>-3.326743773618844</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.528518269768486</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.07039186507466</v>
+        <v>-18.13006658142725</v>
       </c>
       <c r="F43" t="n">
-        <v>1.09324385035356</v>
+        <v>1.081094193316438</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.373365464038231</v>
+        <v>-3.370092388327799</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.288695914927529</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.50518405909451</v>
+        <v>-17.56036811557238</v>
       </c>
       <c r="F44" t="n">
-        <v>1.056506848579676</v>
+        <v>1.051269927442986</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.527160745519987</v>
+        <v>-3.527147653217145</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.052933072808792</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.86677718792626</v>
+        <v>-16.92812771904259</v>
       </c>
       <c r="F45" t="n">
-        <v>1.068617228708273</v>
+        <v>1.059360970599173</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.698643728140915</v>
+        <v>-3.695161175585016</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.823390694462457</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.39216811761085</v>
+        <v>-16.45304732582488</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9094410107585675</v>
+        <v>0.9079223036289273</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.854651608802923</v>
+        <v>-3.849283764637815</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.598767939240987</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.78820709521918</v>
+        <v>-15.84518479718638</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9827579066722335</v>
+        <v>0.9788564004253991</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.842436490251592</v>
+        <v>-3.844400335677851</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.37632210195851</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.16065374310673</v>
+        <v>-15.22823621037572</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9583276695695727</v>
+        <v>0.9506032108929543</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.993639495770687</v>
+        <v>-3.99866694006191</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.153034798966147</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.6476973177679</v>
+        <v>-14.71029161765419</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8857308503122017</v>
+        <v>0.8820911901222017</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.094070550869567</v>
+        <v>-4.095982027084459</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.9255454029667498</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.12556318813702</v>
+        <v>-14.186363842534</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8819209901852594</v>
+        <v>0.8796560217936408</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.181906810634707</v>
+        <v>-4.190717930447189</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.6944935600114439</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.64220845952334</v>
+        <v>-13.69942182294168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9888065505851109</v>
+        <v>0.9843158907103989</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.282521157973372</v>
+        <v>-4.293793630720098</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.460496290927688</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.0225366737216</v>
+        <v>-13.08793272641602</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8852333428042161</v>
+        <v>0.88427760469677</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.39233939420977</v>
+        <v>-4.405614989291281</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2246511158325686</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.61107178001184</v>
+        <v>-12.67115235775252</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8969509538475609</v>
+        <v>0.8954191544150789</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.586629168380986</v>
+        <v>-4.603151654567244</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0102163025786348</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.99507893130862</v>
+        <v>-12.06224244488668</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8690381641890009</v>
+        <v>0.8652413963649003</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.756253043998388</v>
+        <v>-4.766150824946734</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2406328781739549</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.60880362826634</v>
+        <v>-11.67257623540839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.82549316493742</v>
+        <v>0.8195099825387512</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.974815947638164</v>
+        <v>-4.985158866883127</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4613659104374839</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.22760813872664</v>
+        <v>-11.29106653060049</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7519667921782863</v>
+        <v>0.7475154092120995</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.183716731780745</v>
+        <v>-5.198301557146427</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.6664439021582053</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.67384300543015</v>
+        <v>-10.73900339667343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7309536461173161</v>
+        <v>0.7258476480090429</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.262113441197</v>
+        <v>-5.275637790032503</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.8520802590014553</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.43308864847365</v>
+        <v>-10.49450464110419</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6524521982783266</v>
+        <v>0.6504097990350173</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.410409955485232</v>
+        <v>-5.426853887854439</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.014915628305352</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.92493709827774</v>
+        <v>-9.984991491412737</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6795532651606995</v>
+        <v>0.6768300661696205</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.628357520891446</v>
+        <v>-5.645848837487992</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.152691018436716</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.783343843044472</v>
+        <v>-9.837349592266593</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6671810389752684</v>
+        <v>0.6670632082496928</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.686762283868386</v>
+        <v>-5.703533523808637</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.264680764129293</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.403156460823588</v>
+        <v>-9.455708964430277</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7050570710963818</v>
+        <v>0.7066543320430725</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.69976294059022</v>
+        <v>-5.717856503117485</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.350223958194679</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.127118347708636</v>
+        <v>-9.177707005889065</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6675214388491533</v>
+        <v>0.6707683299539013</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.801594872093164</v>
+        <v>-5.826836831972012</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.411805896964721</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.817550847016024</v>
+        <v>-8.875575933210554</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6290955300086872</v>
+        <v>0.632211498085018</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.79207676792723</v>
+        <v>-5.816572466544099</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.452972142257969</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.514778251498267</v>
+        <v>-8.575290875232724</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5274337984426843</v>
+        <v>0.5315840584435114</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.724612131383815</v>
+        <v>-5.751241875363887</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.478087741759093</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.395847772484027</v>
+        <v>-8.451490059561362</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3916928025796684</v>
+        <v>0.3975581542527617</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.74732727681421</v>
+        <v>-5.774271236062482</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.492025073099804</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.199607245189394</v>
+        <v>-8.256205270374176</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3455555273654258</v>
+        <v>0.3503080332969724</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.736277373215794</v>
+        <v>-5.766036177575037</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.499437137901509</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.06698221740271</v>
+        <v>-8.121760412492492</v>
       </c>
       <c r="F67" t="n">
-        <v>0.25464257643248</v>
+        <v>0.2615291277272279</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.690415036361227</v>
+        <v>-5.722203147660938</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.505270351352165</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.927470638321277</v>
+        <v>-7.986399093411886</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1985420587556838</v>
+        <v>0.2048001795140288</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.639774008969431</v>
+        <v>-5.672635689102163</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.513902159736629</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.865688061211172</v>
+        <v>-7.926253054156996</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1898356773659359</v>
+        <v>0.1947321986287415</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.554464563652743</v>
+        <v>-5.588452181829864</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.527781691624202</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.875022873137322</v>
+        <v>-7.936347219647967</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08470448554687558</v>
+        <v>0.0904389141915516</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.448953695051273</v>
+        <v>-5.47987771436343</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.547075822570286</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.937970665200341</v>
+        <v>-7.993272552403792</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08556857753442951</v>
+        <v>0.09020325274040053</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.278203881389482</v>
+        <v>-5.308538747073761</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.570221233330899</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.95958605719203</v>
+        <v>-8.020897311399834</v>
       </c>
       <c r="F72" t="n">
-        <v>0.008049052408569452</v>
+        <v>0.01159706647867722</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.190603283075492</v>
+        <v>-5.216473673490743</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.593995873335264</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.165174488715655</v>
+        <v>-8.221379744815184</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03087436393988215</v>
+        <v>-0.02947348753581746</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.922800228447985</v>
+        <v>-4.948670618863236</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.614458193557039</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.296359363189751</v>
+        <v>-8.354947418406475</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.07664505467455648</v>
+        <v>-0.06985014949970066</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.790842908106229</v>
+        <v>-4.81725008293799</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.626384104724049</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.629846501174196</v>
+        <v>-8.683446389008223</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1655810678784017</v>
+        <v>-0.1642063760800204</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.542848507678253</v>
+        <v>-4.566152806736526</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.62406120628775</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.891339065831991</v>
+        <v>-8.946732599155334</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.153379041629913</v>
+        <v>-0.1487181818182585</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.241712450015712</v>
+        <v>-4.258797905224164</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.601898838225747</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.405604721454992</v>
+        <v>-9.459440270740169</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2289347213295141</v>
+        <v>-0.227887337102176</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.025283591739139</v>
+        <v>-4.046218183983059</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.55601168670675</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.858807876624182</v>
+        <v>-9.913311133354286</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1814620312254154</v>
+        <v>-0.1829938306578973</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.929879980931481</v>
+        <v>-3.947894989641696</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.482851696283123</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.29674540667992</v>
+        <v>-10.34754354170582</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2479578373585421</v>
+        <v>-0.2493587137626068</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.778506775475444</v>
+        <v>-3.794832877119076</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.379664149320344</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.89635978452813</v>
+        <v>-10.95002513387637</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3033120937733599</v>
+        <v>-0.3056163390735037</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.450151820204954</v>
+        <v>-3.466281537305961</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.244606257009969</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.58237026882889</v>
+        <v>-11.63896829401367</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3214056563006253</v>
+        <v>-0.3250584087934669</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.292585955504781</v>
+        <v>-3.310587871912154</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.076571350881482</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.42102391196134</v>
+        <v>-12.47430958452716</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3890797696895074</v>
+        <v>-0.3941595831920971</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.952277727739795</v>
+        <v>-2.969611936702241</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.877577459177005</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.33741964936796</v>
+        <v>-13.3904303835741</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3699911921462707</v>
+        <v>-0.3776109124001553</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.801480583608794</v>
+        <v>-2.81517513238124</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.649514458496156</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.29441461788676</v>
+        <v>-14.35179818124205</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4226091572671679</v>
+        <v>-0.4287101703914122</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.529016669169633</v>
+        <v>-2.545080924756431</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.393838835984136</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.51410664292481</v>
+        <v>-15.5697358376993</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4802807512849712</v>
+        <v>-0.4897595785423808</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.331414542379462</v>
+        <v>-2.34823815153108</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1124727834156831</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.57546035739501</v>
+        <v>-16.63026473709048</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5758807466352549</v>
+        <v>-0.585529773829607</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.096172044919328</v>
+        <v>-2.116713868077996</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1931952697237309</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.75543033561126</v>
+        <v>-17.8144635291246</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5050513882615169</v>
+        <v>-0.5138494157711568</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.033891960301237</v>
+        <v>-2.05401482976897</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5204115539068568</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.12717636585311</v>
+        <v>-19.18373511412937</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6603522845700716</v>
+        <v>-0.6695299888621215</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.004460463513037</v>
+        <v>-2.024059640867101</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8653886897991816</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.66455311934563</v>
+        <v>-20.72414928188117</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.641735029929137</v>
+        <v>-0.6496296885426979</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.990805191649116</v>
+        <v>-2.01062693815149</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.227709223779371</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.3025049432683</v>
+        <v>-22.36388165899031</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6854502291176604</v>
+        <v>-0.6973118554922642</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.00334761777149</v>
+        <v>-2.024085825472784</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.605818058539177</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.01213712524941</v>
+        <v>-24.07258428746966</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8239929777888056</v>
+        <v>-0.8327910052984455</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.042428141754042</v>
+        <v>-2.061503626994437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.997973170011266</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.75041526584823</v>
+        <v>-25.8124073198038</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8733378671992712</v>
+        <v>-0.8833665711760333</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.110206993565658</v>
+        <v>-2.131141585809578</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.401870975374308</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.77786309931224</v>
+        <v>-27.8438352133317</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.046732326035091</v>
+        <v>-1.05627661480671</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.300542892278671</v>
+        <v>-2.319317254553707</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.810152070775709</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.82649427877417</v>
+        <v>-29.89090840875546</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.075443746166997</v>
+        <v>-1.085092773361349</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.363935822638309</v>
+        <v>-2.382121031285467</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.220522995947711</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.02947061643721</v>
+        <v>-32.09490594604015</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.318672548360583</v>
+        <v>-1.333767973537094</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.576489359273732</v>
+        <v>-2.5952113523374</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.630196667622581</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.28937228685606</v>
+        <v>-34.3549909086988</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.444568132486621</v>
+        <v>-1.457045097094786</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.793245525121349</v>
+        <v>-2.810134595787175</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.031749812234025</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.50235114389018</v>
+        <v>-36.56612375103223</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.612084147346506</v>
+        <v>-1.620214467411218</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.885166583373107</v>
+        <v>-2.906179729434078</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.423685849949253</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.83585774088523</v>
+        <v>-38.89909356361077</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.879468248283078</v>
+        <v>-1.886708291754552</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.141186565443061</v>
+        <v>-3.158848081976549</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.790415434832839</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.13938296437272</v>
+        <v>-41.20123100299703</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.892311797370811</v>
+        <v>-1.898190241346746</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.373574940883699</v>
+        <v>-3.381718353251252</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.136005990741211</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.4733085150587</v>
+        <v>-43.53704184529222</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.22520978172738</v>
+        <v>-2.227631857753099</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.450806435347041</v>
+        <v>-3.470471074215313</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.436884996479287</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.80540114334684</v>
+        <v>-45.86381899862663</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.268073981231191</v>
+        <v>-2.272682471831478</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.707297740319296</v>
+        <v>-3.723231072877677</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.715047994520032</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.33675862088605</v>
+        <v>-48.39122260070764</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.529029761472475</v>
+        <v>-2.529042853775317</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.750358324365733</v>
+        <v>-3.773492423487063</v>
       </c>
     </row>
   </sheetData>
